--- a/Crawling/music/crawled_data/mod_bugs/live_bugs_20220520_110100.xlsx
+++ b/Crawling/music/crawled_data/mod_bugs/live_bugs_20220520_110100.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="269">
   <si>
     <t>사이트</t>
   </si>
@@ -757,7 +757,7 @@
     <t>꿈의엔진</t>
   </si>
   <si>
-    <t>개인</t>
+    <t>기타</t>
   </si>
   <si>
     <t>SHOFAR</t>
@@ -815,9 +815,6 @@
   </si>
   <si>
     <t>SONY MUSIC</t>
-  </si>
-  <si>
-    <t>기타</t>
   </si>
   <si>
     <t>neuron music</t>
@@ -1288,7 +1285,7 @@
         <v>230</v>
       </c>
       <c r="H4" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1392,7 +1389,7 @@
         <v>231</v>
       </c>
       <c r="H8" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1418,7 +1415,7 @@
         <v>232</v>
       </c>
       <c r="H9" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1470,7 +1467,7 @@
         <v>234</v>
       </c>
       <c r="H11" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1496,7 +1493,7 @@
         <v>235</v>
       </c>
       <c r="H12" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1548,7 +1545,7 @@
         <v>237</v>
       </c>
       <c r="H14" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1574,7 +1571,7 @@
         <v>238</v>
       </c>
       <c r="H15" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1600,7 +1597,7 @@
         <v>239</v>
       </c>
       <c r="H16" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1652,7 +1649,7 @@
         <v>241</v>
       </c>
       <c r="H18" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1678,7 +1675,7 @@
         <v>232</v>
       </c>
       <c r="H19" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1704,7 +1701,7 @@
         <v>237</v>
       </c>
       <c r="H20" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1756,7 +1753,7 @@
         <v>243</v>
       </c>
       <c r="H22" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1782,7 +1779,7 @@
         <v>244</v>
       </c>
       <c r="H23" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1808,7 +1805,7 @@
         <v>245</v>
       </c>
       <c r="H24" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1860,7 +1857,7 @@
         <v>246</v>
       </c>
       <c r="H26" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1886,7 +1883,7 @@
         <v>234</v>
       </c>
       <c r="H27" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1912,7 +1909,7 @@
         <v>247</v>
       </c>
       <c r="H28" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1938,7 +1935,7 @@
         <v>232</v>
       </c>
       <c r="H29" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1964,7 +1961,7 @@
         <v>248</v>
       </c>
       <c r="H30" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1990,7 +1987,7 @@
         <v>232</v>
       </c>
       <c r="H31" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2016,7 +2013,7 @@
         <v>232</v>
       </c>
       <c r="H32" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2042,7 +2039,7 @@
         <v>249</v>
       </c>
       <c r="H33" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2068,7 +2065,7 @@
         <v>250</v>
       </c>
       <c r="H34" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2146,7 +2143,7 @@
         <v>251</v>
       </c>
       <c r="H37" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2172,7 +2169,7 @@
         <v>237</v>
       </c>
       <c r="H38" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2198,7 +2195,7 @@
         <v>237</v>
       </c>
       <c r="H39" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2224,7 +2221,7 @@
         <v>234</v>
       </c>
       <c r="H40" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2250,7 +2247,7 @@
         <v>252</v>
       </c>
       <c r="H41" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2276,7 +2273,7 @@
         <v>250</v>
       </c>
       <c r="H42" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2328,7 +2325,7 @@
         <v>247</v>
       </c>
       <c r="H44" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2354,7 +2351,7 @@
         <v>230</v>
       </c>
       <c r="H45" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2380,7 +2377,7 @@
         <v>247</v>
       </c>
       <c r="H46" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2406,7 +2403,7 @@
         <v>234</v>
       </c>
       <c r="H47" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2432,7 +2429,7 @@
         <v>245</v>
       </c>
       <c r="H48" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2458,7 +2455,7 @@
         <v>243</v>
       </c>
       <c r="H49" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2484,7 +2481,7 @@
         <v>253</v>
       </c>
       <c r="H50" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2510,7 +2507,7 @@
         <v>254</v>
       </c>
       <c r="H51" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2536,7 +2533,7 @@
         <v>231</v>
       </c>
       <c r="H52" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2562,7 +2559,7 @@
         <v>255</v>
       </c>
       <c r="H53" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2588,7 +2585,7 @@
         <v>256</v>
       </c>
       <c r="H54" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2614,7 +2611,7 @@
         <v>248</v>
       </c>
       <c r="H55" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2692,7 +2689,7 @@
         <v>231</v>
       </c>
       <c r="H58" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2744,7 +2741,7 @@
         <v>241</v>
       </c>
       <c r="H60" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2796,7 +2793,7 @@
         <v>232</v>
       </c>
       <c r="H62" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2822,7 +2819,7 @@
         <v>258</v>
       </c>
       <c r="H63" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2848,7 +2845,7 @@
         <v>259</v>
       </c>
       <c r="H64" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2874,7 +2871,7 @@
         <v>256</v>
       </c>
       <c r="H65" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2926,7 +2923,7 @@
         <v>243</v>
       </c>
       <c r="H67" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2952,7 +2949,7 @@
         <v>247</v>
       </c>
       <c r="H68" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2978,7 +2975,7 @@
         <v>243</v>
       </c>
       <c r="H69" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3004,7 +3001,7 @@
         <v>260</v>
       </c>
       <c r="H70" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3030,7 +3027,7 @@
         <v>261</v>
       </c>
       <c r="H71" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3056,7 +3053,7 @@
         <v>243</v>
       </c>
       <c r="H72" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3082,7 +3079,7 @@
         <v>251</v>
       </c>
       <c r="H73" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3108,7 +3105,7 @@
         <v>243</v>
       </c>
       <c r="H74" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3134,7 +3131,7 @@
         <v>262</v>
       </c>
       <c r="H75" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3160,7 +3157,7 @@
         <v>263</v>
       </c>
       <c r="H76" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3186,7 +3183,7 @@
         <v>264</v>
       </c>
       <c r="H77" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3238,7 +3235,7 @@
         <v>256</v>
       </c>
       <c r="H79" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3264,7 +3261,7 @@
         <v>232</v>
       </c>
       <c r="H80" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3290,7 +3287,7 @@
         <v>253</v>
       </c>
       <c r="H81" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3316,7 +3313,7 @@
         <v>266</v>
       </c>
       <c r="H82" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3342,7 +3339,7 @@
         <v>256</v>
       </c>
       <c r="H83" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3368,7 +3365,7 @@
         <v>243</v>
       </c>
       <c r="H84" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3420,7 +3417,7 @@
         <v>243</v>
       </c>
       <c r="H86" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3446,7 +3443,7 @@
         <v>243</v>
       </c>
       <c r="H87" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3498,7 +3495,7 @@
         <v>248</v>
       </c>
       <c r="H89" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3524,7 +3521,7 @@
         <v>241</v>
       </c>
       <c r="H90" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3547,10 +3544,10 @@
         <v>222</v>
       </c>
       <c r="G91" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
       <c r="H91" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3576,7 +3573,7 @@
         <v>256</v>
       </c>
       <c r="H92" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3628,7 +3625,7 @@
         <v>250</v>
       </c>
       <c r="H94" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3651,10 +3648,10 @@
         <v>224</v>
       </c>
       <c r="G95" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H95" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3680,7 +3677,7 @@
         <v>243</v>
       </c>
       <c r="H96" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3703,10 +3700,10 @@
         <v>226</v>
       </c>
       <c r="G97" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
       <c r="H97" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3729,10 +3726,10 @@
         <v>106</v>
       </c>
       <c r="G98" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
       <c r="H98" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3758,7 +3755,7 @@
         <v>263</v>
       </c>
       <c r="H99" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3784,7 +3781,7 @@
         <v>243</v>
       </c>
       <c r="H100" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3807,10 +3804,10 @@
         <v>228</v>
       </c>
       <c r="G101" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H101" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
